--- a/Rebuttal_folder_backup/S2_SI_Dataset.xlsx
+++ b/Rebuttal_folder_backup/S2_SI_Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK-GENERAL\POSTDOC-UCB\BERKELEY-VIBE\Documents\Projects\RapidResponse\Submission files\Rebuttal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\Python dev\2023_Kilauea-rapid-response-simulation\Rebuttal_folder_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A61025-C483-44A9-B4D6-A807D05CEB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2B3A1-0B90-48D4-B0A6-CA2CFC28C7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C39CC84-2372-405C-92ED-7DFE455DE77D}"/>
   </bookViews>
@@ -25,7 +25,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="S001M000">#REF!</definedName>
@@ -42,7 +41,7 @@
     <definedName name="S001M039M047">#REF!</definedName>
     <definedName name="S001M043M024">#REF!</definedName>
     <definedName name="S001M043M060">#REF!</definedName>
-    <definedName name="S001M047">'[2]BHVO2G-1'!$Q$56:$Q$153</definedName>
+    <definedName name="S001M047">'[1]BHVO2G-1'!$Q$56:$Q$153</definedName>
     <definedName name="S001M047M043">#REF!</definedName>
     <definedName name="S001M048">#REF!</definedName>
     <definedName name="S001M051M043">#REF!</definedName>
@@ -143,7 +142,7 @@
     <definedName name="S002M043M047">#REF!</definedName>
     <definedName name="S002M045M043">#REF!</definedName>
     <definedName name="S002M045M047">#REF!</definedName>
-    <definedName name="S002M047">'[2]BIR1G-1'!$Q$56:$Q$153</definedName>
+    <definedName name="S002M047">'[1]BIR1G-1'!$Q$56:$Q$153</definedName>
     <definedName name="S002M047M043">#REF!</definedName>
     <definedName name="S002M047M051">#REF!</definedName>
     <definedName name="S002M048">#REF!</definedName>
@@ -242,7 +241,7 @@
     <definedName name="S003M031M043">#REF!</definedName>
     <definedName name="S003M032">#REF!</definedName>
     <definedName name="S003M035">#REF!</definedName>
-    <definedName name="S003M047">'[2]BCR2G-1'!$Q$56:$Q$153</definedName>
+    <definedName name="S003M047">'[1]BCR2G-1'!$Q$56:$Q$153</definedName>
     <definedName name="S003M047M043">#REF!</definedName>
     <definedName name="S003M048">#REF!</definedName>
     <definedName name="S003M054">#REF!</definedName>
@@ -461,7 +460,7 @@
     <definedName name="S006M026">#REF!</definedName>
     <definedName name="S006M028">#REF!</definedName>
     <definedName name="S006M035">#REF!</definedName>
-    <definedName name="S006M047">'[2]GSC-1'!$Q$56:$Q$153</definedName>
+    <definedName name="S006M047">'[1]GSC-1'!$Q$56:$Q$153</definedName>
     <definedName name="S006M048">#REF!</definedName>
     <definedName name="S006M054">#REF!</definedName>
     <definedName name="S006M058">#REF!</definedName>
@@ -524,7 +523,7 @@
     <definedName name="S007M026">#REF!</definedName>
     <definedName name="S007M028">#REF!</definedName>
     <definedName name="S007M035">#REF!</definedName>
-    <definedName name="S007M047">'[2]GSD-1'!$Q$56:$Q$153</definedName>
+    <definedName name="S007M047">'[1]GSD-1'!$Q$56:$Q$153</definedName>
     <definedName name="S007M048">#REF!</definedName>
     <definedName name="S007M054">#REF!</definedName>
     <definedName name="S007M058">#REF!</definedName>
@@ -648,7 +647,7 @@
     <definedName name="S009M019">#REF!</definedName>
     <definedName name="S009M026">#REF!</definedName>
     <definedName name="S009M035">#REF!</definedName>
-    <definedName name="S009M047">'[2]BIR1G-2'!$Q$56:$Q$149</definedName>
+    <definedName name="S009M047">'[1]BIR1G-2'!$Q$56:$Q$149</definedName>
     <definedName name="S009M048">#REF!</definedName>
     <definedName name="S009M054">#REF!</definedName>
     <definedName name="S009M058">#REF!</definedName>
@@ -707,7 +706,7 @@
     <definedName name="S010M019">#REF!</definedName>
     <definedName name="S010M026">#REF!</definedName>
     <definedName name="S010M035">#REF!</definedName>
-    <definedName name="S010M047">'[2]BCR2G-2'!$Q$56:$Q$149</definedName>
+    <definedName name="S010M047">'[1]BCR2G-2'!$Q$56:$Q$149</definedName>
     <definedName name="S010M048">#REF!</definedName>
     <definedName name="S010M054">#REF!</definedName>
     <definedName name="S010M058">#REF!</definedName>
@@ -882,7 +881,7 @@
     <definedName name="S013M019">#REF!</definedName>
     <definedName name="S013M026">#REF!</definedName>
     <definedName name="S013M035">#REF!</definedName>
-    <definedName name="S013M047">'[2]GSC-2'!$Q$56:$Q$149</definedName>
+    <definedName name="S013M047">'[1]GSC-2'!$Q$56:$Q$149</definedName>
     <definedName name="S013M048">#REF!</definedName>
     <definedName name="S013M054">#REF!</definedName>
     <definedName name="S013M058">#REF!</definedName>
@@ -941,7 +940,7 @@
     <definedName name="S014M019">#REF!</definedName>
     <definedName name="S014M026">#REF!</definedName>
     <definedName name="S014M035">#REF!</definedName>
-    <definedName name="S014M047">'[2]GSD-2'!$Q$56:$Q$149</definedName>
+    <definedName name="S014M047">'[1]GSD-2'!$Q$56:$Q$149</definedName>
     <definedName name="S014M048">#REF!</definedName>
     <definedName name="S014M054">#REF!</definedName>
     <definedName name="S014M058">#REF!</definedName>
@@ -1807,7 +1806,7 @@
     <definedName name="S035M209">#REF!</definedName>
     <definedName name="S036M026">#REF!</definedName>
     <definedName name="S036M035">#REF!</definedName>
-    <definedName name="S036M047">'[2]BHVO2G-3'!$Q$56:$Q$149</definedName>
+    <definedName name="S036M047">'[1]BHVO2G-3'!$Q$56:$Q$149</definedName>
     <definedName name="S036M048">#REF!</definedName>
     <definedName name="S036M069">#REF!</definedName>
     <definedName name="S036M073">#REF!</definedName>
@@ -1844,7 +1843,7 @@
     <definedName name="S036M209">#REF!</definedName>
     <definedName name="S037M026">#REF!</definedName>
     <definedName name="S037M035">#REF!</definedName>
-    <definedName name="S037M047">'[2]BIR1G-3'!$Q$56:$Q$149</definedName>
+    <definedName name="S037M047">'[1]BIR1G-3'!$Q$56:$Q$149</definedName>
     <definedName name="S037M048">#REF!</definedName>
     <definedName name="S037M069">#REF!</definedName>
     <definedName name="S037M073">#REF!</definedName>
@@ -1881,7 +1880,7 @@
     <definedName name="S037M209">#REF!</definedName>
     <definedName name="S038M026">#REF!</definedName>
     <definedName name="S038M035">#REF!</definedName>
-    <definedName name="S038M047">'[2]BCR2G-3'!$Q$56:$Q$149</definedName>
+    <definedName name="S038M047">'[1]BCR2G-3'!$Q$56:$Q$149</definedName>
     <definedName name="S038M048">#REF!</definedName>
     <definedName name="S038M069">#REF!</definedName>
     <definedName name="S038M073">#REF!</definedName>
@@ -1984,7 +1983,7 @@
     <definedName name="S040M209">#REF!</definedName>
     <definedName name="S041M026">#REF!</definedName>
     <definedName name="S041M035">#REF!</definedName>
-    <definedName name="S041M047">'[2]GSC-3'!$Q$56:$Q$149</definedName>
+    <definedName name="S041M047">'[1]GSC-3'!$Q$56:$Q$149</definedName>
     <definedName name="S041M069">#REF!</definedName>
     <definedName name="S041M073">#REF!</definedName>
     <definedName name="S041M075">#REF!</definedName>
@@ -2015,7 +2014,7 @@
     <definedName name="S041M209">#REF!</definedName>
     <definedName name="S042M026">#REF!</definedName>
     <definedName name="S042M035">#REF!</definedName>
-    <definedName name="S042M047">'[2]GSD-3'!$Q$56:$Q$149</definedName>
+    <definedName name="S042M047">'[1]GSD-3'!$Q$56:$Q$149</definedName>
     <definedName name="S042M069">#REF!</definedName>
     <definedName name="S042M073">#REF!</definedName>
     <definedName name="S042M075">#REF!</definedName>
@@ -2294,7 +2293,7 @@
     <definedName name="S051M160">#REF!</definedName>
     <definedName name="S052M026">#REF!</definedName>
     <definedName name="S052M035">#REF!</definedName>
-    <definedName name="S052M047">'[2]BHVO2G_unk-1'!$Q$56:$Q$149</definedName>
+    <definedName name="S052M047">'[1]BHVO2G_unk-1'!$Q$56:$Q$149</definedName>
     <definedName name="S052M069">#REF!</definedName>
     <definedName name="S052M075">#REF!</definedName>
     <definedName name="S052M121">#REF!</definedName>
@@ -2303,7 +2302,7 @@
     <definedName name="S052M160">#REF!</definedName>
     <definedName name="S053M026">#REF!</definedName>
     <definedName name="S053M035">#REF!</definedName>
-    <definedName name="S053M047">'[2]BHVO2G_unk-2'!$Q$56:$Q$149</definedName>
+    <definedName name="S053M047">'[1]BHVO2G_unk-2'!$Q$56:$Q$149</definedName>
     <definedName name="S053M069">#REF!</definedName>
     <definedName name="S053M075">#REF!</definedName>
     <definedName name="S053M121">#REF!</definedName>
@@ -2312,7 +2311,7 @@
     <definedName name="S053M160">#REF!</definedName>
     <definedName name="S054M026">#REF!</definedName>
     <definedName name="S054M035">#REF!</definedName>
-    <definedName name="S054M047">'[2]BHVO2G_unk-3'!$Q$56:$Q$149</definedName>
+    <definedName name="S054M047">'[1]BHVO2G_unk-3'!$Q$56:$Q$149</definedName>
     <definedName name="S054M069">#REF!</definedName>
     <definedName name="S054M075">#REF!</definedName>
     <definedName name="S054M121">#REF!</definedName>
@@ -2321,7 +2320,7 @@
     <definedName name="S054M160">#REF!</definedName>
     <definedName name="S055M026">#REF!</definedName>
     <definedName name="S055M035">#REF!</definedName>
-    <definedName name="S055M047">'[2]BHVO2G_unk-4'!$Q$56:$Q$149</definedName>
+    <definedName name="S055M047">'[1]BHVO2G_unk-4'!$Q$56:$Q$149</definedName>
     <definedName name="S055M069">#REF!</definedName>
     <definedName name="S055M075">#REF!</definedName>
     <definedName name="S055M121">#REF!</definedName>
@@ -2330,7 +2329,7 @@
     <definedName name="S055M160">#REF!</definedName>
     <definedName name="S056M026">#REF!</definedName>
     <definedName name="S056M035">#REF!</definedName>
-    <definedName name="S056M047">'[2]BHVO2G_unk-5'!$Q$56:$Q$149</definedName>
+    <definedName name="S056M047">'[1]BHVO2G_unk-5'!$Q$56:$Q$149</definedName>
     <definedName name="S056M069">#REF!</definedName>
     <definedName name="S056M075">#REF!</definedName>
     <definedName name="S056M121">#REF!</definedName>
@@ -2339,7 +2338,7 @@
     <definedName name="S056M160">#REF!</definedName>
     <definedName name="S057M026">#REF!</definedName>
     <definedName name="S057M035">#REF!</definedName>
-    <definedName name="S057M047">'[2]BHVO2G-4'!$Q$56:$Q$149</definedName>
+    <definedName name="S057M047">'[1]BHVO2G-4'!$Q$56:$Q$149</definedName>
     <definedName name="S057M069">#REF!</definedName>
     <definedName name="S057M075">#REF!</definedName>
     <definedName name="S057M121">#REF!</definedName>
@@ -2348,7 +2347,7 @@
     <definedName name="S057M160">#REF!</definedName>
     <definedName name="S058M026">#REF!</definedName>
     <definedName name="S058M035">#REF!</definedName>
-    <definedName name="S058M047">'[2]BIR1G-4'!$Q$56:$Q$149</definedName>
+    <definedName name="S058M047">'[1]BIR1G-4'!$Q$56:$Q$149</definedName>
     <definedName name="S058M069">#REF!</definedName>
     <definedName name="S058M075">#REF!</definedName>
     <definedName name="S058M121">#REF!</definedName>
@@ -2357,7 +2356,7 @@
     <definedName name="S058M160">#REF!</definedName>
     <definedName name="S059M026">#REF!</definedName>
     <definedName name="S059M035">#REF!</definedName>
-    <definedName name="S059M047">'[2]BCR2G-4'!$Q$56:$Q$149</definedName>
+    <definedName name="S059M047">'[1]BCR2G-4'!$Q$56:$Q$149</definedName>
     <definedName name="S059M069">#REF!</definedName>
     <definedName name="S059M075">#REF!</definedName>
     <definedName name="S059M121">#REF!</definedName>
@@ -2382,7 +2381,7 @@
     <definedName name="S061M160">#REF!</definedName>
     <definedName name="S062M026">#REF!</definedName>
     <definedName name="S062M035">#REF!</definedName>
-    <definedName name="S062M047">'[2]GSC-4'!$Q$56:$Q$149</definedName>
+    <definedName name="S062M047">'[1]GSC-4'!$Q$56:$Q$149</definedName>
     <definedName name="S062M069">#REF!</definedName>
     <definedName name="S062M075">#REF!</definedName>
     <definedName name="S062M121">#REF!</definedName>
@@ -2391,7 +2390,7 @@
     <definedName name="S062M160">#REF!</definedName>
     <definedName name="S063M026">#REF!</definedName>
     <definedName name="S063M035">#REF!</definedName>
-    <definedName name="S063M047">'[2]GSD-4'!$Q$56:$Q$149</definedName>
+    <definedName name="S063M047">'[1]GSD-4'!$Q$56:$Q$149</definedName>
     <definedName name="S063M069">#REF!</definedName>
     <definedName name="S063M075">#REF!</definedName>
     <definedName name="S063M121">#REF!</definedName>
@@ -2456,7 +2455,7 @@
     <definedName name="S070M160">#REF!</definedName>
     <definedName name="S071M026">#REF!</definedName>
     <definedName name="S071M035">#REF!</definedName>
-    <definedName name="S071M047">'[2]GSD-5'!$Q$56:$Q$149</definedName>
+    <definedName name="S071M047">'[1]GSD-5'!$Q$56:$Q$149</definedName>
     <definedName name="S071M069">#REF!</definedName>
     <definedName name="S071M075">#REF!</definedName>
     <definedName name="S071M121">#REF!</definedName>
@@ -2465,7 +2464,7 @@
     <definedName name="S071M160">#REF!</definedName>
     <definedName name="S072M026">#REF!</definedName>
     <definedName name="S072M035">#REF!</definedName>
-    <definedName name="S072M047">'[2]GSC-5'!$Q$56:$Q$149</definedName>
+    <definedName name="S072M047">'[1]GSC-5'!$Q$56:$Q$149</definedName>
     <definedName name="S072M069">#REF!</definedName>
     <definedName name="S072M075">#REF!</definedName>
     <definedName name="S072M121">#REF!</definedName>
@@ -2490,7 +2489,7 @@
     <definedName name="S074M160">#REF!</definedName>
     <definedName name="S075M026">#REF!</definedName>
     <definedName name="S075M035">#REF!</definedName>
-    <definedName name="S075M047">'[2]BCR2G-5'!$Q$56:$Q$149</definedName>
+    <definedName name="S075M047">'[1]BCR2G-5'!$Q$56:$Q$149</definedName>
     <definedName name="S075M069">#REF!</definedName>
     <definedName name="S075M075">#REF!</definedName>
     <definedName name="S075M121">#REF!</definedName>
@@ -2499,7 +2498,7 @@
     <definedName name="S075M160">#REF!</definedName>
     <definedName name="S076M026">#REF!</definedName>
     <definedName name="S076M035">#REF!</definedName>
-    <definedName name="S076M047">'[2]BIR1G-5'!$Q$56:$Q$149</definedName>
+    <definedName name="S076M047">'[1]BIR1G-5'!$Q$56:$Q$149</definedName>
     <definedName name="S076M069">#REF!</definedName>
     <definedName name="S076M075">#REF!</definedName>
     <definedName name="S076M121">#REF!</definedName>
@@ -2508,7 +2507,7 @@
     <definedName name="S076M160">#REF!</definedName>
     <definedName name="S077M026">#REF!</definedName>
     <definedName name="S077M035">#REF!</definedName>
-    <definedName name="S077M047">'[2]BHVO2G-5'!$Q$56:$Q$149</definedName>
+    <definedName name="S077M047">'[1]BHVO2G-5'!$Q$56:$Q$149</definedName>
     <definedName name="S077M069">#REF!</definedName>
     <definedName name="S077M075">#REF!</definedName>
     <definedName name="S077M121">#REF!</definedName>
@@ -3917,7 +3916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="693">
   <si>
     <t>EDS_Name</t>
   </si>
@@ -6054,6 +6053,24 @@
   <si>
     <t>XH2O_i5_max</t>
   </si>
+  <si>
+    <t>P_kbar_mixCO2_DZ06_Hloss_iteration5_min</t>
+  </si>
+  <si>
+    <t>XH2O_iteration5_min</t>
+  </si>
+  <si>
+    <t>P_kbar_mixCO2_DZ06_Hloss_iteration5_av</t>
+  </si>
+  <si>
+    <t>XH2O_iteration5_av</t>
+  </si>
+  <si>
+    <t>P_kbar_mixCO2_DZ06_Hloss_iteration5_max</t>
+  </si>
+  <si>
+    <t>XH2O_iteration5_max</t>
+  </si>
 </sst>
 </file>
 
@@ -6582,64 +6599,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Intraplate compilation"/>
-      <sheetName val="Galapagos_GEOROC"/>
-      <sheetName val="Hauri_Borgarhraun_2017"/>
-      <sheetName val="EAR+Mascarene-Reunion_GEOROC"/>
-      <sheetName val="Comoros"/>
-      <sheetName val="Bali_Holohraun2014-15_2018"/>
-      <sheetName val="Hartley_Laki_2014"/>
-      <sheetName val="Miller_Midfell_2019"/>
-      <sheetName val="Rasmussen_ARC+rifts_full"/>
-      <sheetName val="Wong_2023_Ethiopia"/>
-      <sheetName val="Moore_2015_bubbles"/>
-      <sheetName val="Moore_2018_kluychev"/>
-      <sheetName val="Rasmussen_Antarctica"/>
-      <sheetName val="HernandezNava_deccan"/>
-      <sheetName val="EarthChem_Ridges"/>
-      <sheetName val="Lerner_2021"/>
-      <sheetName val="Helo2011_JDF"/>
-      <sheetName val="Bennett_2019_Gakkel"/>
-      <sheetName val="Wieser2024_CascadesMIcomp"/>
-      <sheetName val="Cascades_Wieser_simplified"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BHVO2G-1"/>
       <sheetName val="BIR1G-1"/>
@@ -7005,8 +6964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAD7785-6558-464F-A37E-1928800A36E9}">
   <dimension ref="A1:EJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DX1" workbookViewId="0">
-      <selection activeCell="EC5" sqref="EC5"/>
+    <sheetView tabSelected="1" topLeftCell="DY1" workbookViewId="0">
+      <selection activeCell="EB3" sqref="EB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7431,28 +7390,28 @@
         <v>677</v>
       </c>
       <c r="EB1" s="61" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="EC1" s="61" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="ED1" s="61" t="s">
         <v>681</v>
       </c>
       <c r="EE1" s="61" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="EF1" s="61" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="EG1" s="61" t="s">
         <v>682</v>
       </c>
       <c r="EH1" s="61" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="EI1" s="61" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="EJ1" s="61" t="s">
         <v>683</v>
